--- a/admin/build/locales/multilanguage.xlsx
+++ b/admin/build/locales/multilanguage.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208">
   <si>
     <t>标记</t>
   </si>
@@ -630,6 +630,15 @@
   </si>
   <si>
     <t>更改纪念币图标(SVG)</t>
+  </si>
+  <si>
+    <t>label_absence</t>
+  </si>
+  <si>
+    <t>Some essential labels are absent in the code of svg</t>
+  </si>
+  <si>
+    <t>SVG中缺乏必要的标签</t>
   </si>
 </sst>
 </file>
@@ -638,8 +647,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -659,6 +668,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -672,15 +688,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -695,14 +704,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -712,32 +713,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -758,8 +742,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -772,6 +757,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -780,27 +804,12 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -829,169 +838,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1018,6 +1027,47 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1039,56 +1089,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1102,157 +1102,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1282,9 +1291,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1611,7 +1617,7 @@
   <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5" defaultRowHeight="17.6" outlineLevelCol="3"/>
@@ -2355,13 +2361,13 @@
       <c r="D61" s="1"/>
     </row>
     <row r="62" s="1" customFormat="1" spans="1:3">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="10" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2437,7 +2443,7 @@
       </c>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" ht="18" spans="1:3">
+    <row r="69" ht="18" spans="1:4">
       <c r="A69" s="3" t="s">
         <v>202</v>
       </c>
@@ -2447,9 +2453,19 @@
       <c r="C69" s="3" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="3"/>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" ht="18" spans="1:4">
+      <c r="A70" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D70" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A1:C92">

--- a/admin/build/locales/multilanguage.xlsx
+++ b/admin/build/locales/multilanguage.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225">
   <si>
     <t>标记</t>
   </si>
@@ -639,6 +639,57 @@
   </si>
   <si>
     <t>SVG中缺乏必要的标签</t>
+  </si>
+  <si>
+    <t>empty_issuer</t>
+  </si>
+  <si>
+    <t>The issuer is empty</t>
+  </si>
+  <si>
+    <t>发行组织为空</t>
+  </si>
+  <si>
+    <t>err_get_ethPrice</t>
+  </si>
+  <si>
+    <t>Error raise while getting the price of ETH</t>
+  </si>
+  <si>
+    <t>获取ETH价格出错</t>
+  </si>
+  <si>
+    <t>refresh</t>
+  </si>
+  <si>
+    <t>Refresh</t>
+  </si>
+  <si>
+    <t>刷新</t>
+  </si>
+  <si>
+    <t>is_lock</t>
+  </si>
+  <si>
+    <t>The icon of token isLock</t>
+  </si>
+  <si>
+    <t>是否锁定ICON</t>
+  </si>
+  <si>
+    <t>Lock</t>
+  </si>
+  <si>
+    <t>锁定</t>
+  </si>
+  <si>
+    <t>token_repu</t>
+  </si>
+  <si>
+    <t>The value of commemoration</t>
+  </si>
+  <si>
+    <t>纪念值</t>
   </si>
 </sst>
 </file>
@@ -646,10 +697,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -668,7 +719,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -682,9 +733,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -696,6 +755,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -704,17 +779,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -729,70 +810,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -810,6 +830,37 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -826,13 +877,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,19 +1027,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,139 +1039,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1016,74 +1067,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1111,153 +1099,216 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1614,10 +1665,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5" defaultRowHeight="17.6" outlineLevelCol="3"/>
@@ -2467,6 +2518,72 @@
       </c>
       <c r="D70" s="1"/>
     </row>
+    <row r="71" ht="18" spans="1:3">
+      <c r="A71" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="72" ht="18" spans="1:3">
+      <c r="A72" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="73" ht="18" spans="1:3">
+      <c r="A73" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="74" ht="18" spans="1:3">
+      <c r="A74" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="75" ht="18" spans="1:3">
+      <c r="A75" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="76" ht="18" spans="1:3">
+      <c r="A76" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A1:C92">
     <sortCondition ref="A2"/>

--- a/admin/build/locales/multilanguage.xlsx
+++ b/admin/build/locales/multilanguage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16200"/>
+    <workbookView windowHeight="24000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -686,10 +686,10 @@
     <t>token_repu</t>
   </si>
   <si>
-    <t>The value of commemoration</t>
-  </si>
-  <si>
-    <t>纪念值</t>
+    <t>The value of honor</t>
+  </si>
+  <si>
+    <t>荣誉值</t>
   </si>
 </sst>
 </file>
@@ -698,9 +698,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -719,7 +719,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -727,6 +727,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -747,33 +754,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -794,15 +777,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -823,24 +824,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -853,14 +861,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -877,181 +877,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,26 +1067,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1116,16 +1114,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1147,9 +1145,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1167,148 +1167,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1668,7 +1668,7 @@
   <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5" defaultRowHeight="17.6" outlineLevelCol="3"/>
